--- a/examples_llama.xlsx
+++ b/examples_llama.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliki\Desktop\wiki_chatbot_ncpeh_ehealthlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DAD777-E3C2-4237-8613-279B8496325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD522F49-BBE8-4CA5-8E9D-30E3B1E76F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8585942-3168-4302-8051-D5360FE024DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="173">
   <si>
     <t>Question</t>
   </si>
@@ -531,6 +531,33 @@
   </si>
   <si>
     <t>The Registry Portal is designed to provide a secure and efficient way for healthcare professionals such as physicians and pharmacists to access and manage their personal and professional information. The portal allows healthcare professionals to easily update their personal information, such as their name, address, and contact information, as well as their professional information, such as their qualifications and licenses. The portal also provides a secure way for healthcare professionals to access and manage their digital certificates, which are used to verify their professional qualifications and credentials. Additionally, the portal provides a centralized location for healthcare professionals to access and</t>
+  </si>
+  <si>
+    <t>The NeHA Administrator is responsible for creating new roles within the system to accommodate evolving administrative needs. This includes the crucial role of the Operator -NeHA, which plays a significant part in managing pharmacists and pharmacies..</t>
+  </si>
+  <si>
+    <t>The NeHA Operator is responsible for managing the system's day-to-day operations, with a focus on pharmacists, pharmacies, and certification processes. The NeHA Operator can: View all pharmacists, physicians, and pharmacies within the system. Edit details of pharmacists and pharmacies to ensure up-to-date and accurate information. Enable or disable pharmacists and physicians within the system, ensuring only authorized individuals have access. View active, expired, and revoked certificates, along with</t>
+  </si>
+  <si>
+    <t>The Pharmacy Operator plays a crucial role in the operational management of pharmacies and pharmacists within the system. They are responsible for adding new pharmacists and pharmacies to the system, managing the details of pharmacies, and enabling or disabling pharmacists. They also have the authority to create new certificates, view their active, revoked, and expired certificates, and revoke active certificates..</t>
+  </si>
+  <si>
+    <t>Certificates play a crucial role in the roles of pharmacists and physicians within the system. They are used to verify and authenticate professional qualifications and services, ensuring that only qualified and authorized individuals can access and use the system. Certificates are created and managed by pharmacists and physicians, who are responsible for ensuring that the information contained in the certificates is accurate and up-to-date. This includes information such as the individual's name, qualifications, and professional affiliations. Certificates are also used to verify the authenticity of professional qualifications</t>
+  </si>
+  <si>
+    <t>Physicians and pharmacists play a crucial role in the NCP eHealth(Cyprus) Portal regarding certificates. Physicians are responsible for creating and managing certificates, while pharmacists are authorized to view their active, revoked, and expired certificates. Both roles have the authority to revoke active certificates, ensuring the system reflects their current professional standing accurately..</t>
+  </si>
+  <si>
+    <t>The responsibilities associated with the creation of certificates for physicians and pharmacists include: 1. Creating new certificates: Both physicians and pharmacists have the authority to create new certificates, which are used to verify and authenticate professional qualifications and services. 2. Viewing certificates: Both physicians and pharmacists have the capability to view their active, revoked, and expired certificates, providing them with a comprehensive overview of their certification status. 3. Revocation of certificates: Both physicians and pharmacists hold the authority</t>
+  </si>
+  <si>
+    <t>Physicians and pharmacists can view their certificates within the system by logging into the NCPeH CY portal and navigating to the "My Certificates" section. This section provides a comprehensive overview of their active, revoked, and expired certificates, allowing them to monitor their certification status and ensure that their professional qualifications and services are accurately reflected in the system..</t>
+  </si>
+  <si>
+    <t>The NCP eHealth(Cyprus) Portal is a digital platform that provides a secure and efficient way for healthcare professionals to share and access patient information. The portal is designed to facilitate cross-border eHealth services, allowing healthcare providers to collaborate and coordinate care for patients who may be receiving treatment in multiple countries. The portal is managed by the National eHealth Authority (NeHA) in Cyprus, which is responsible for the development and implementation of the portal. The NeHA is a government agency that is tasked with promoting the use of eHealth techn</t>
+  </si>
+  <si>
+    <t>Certificates are crucial for verification and authentication within the portal because they provide a secure and reliable way to verify the identity and credentials of healthcare professionals. Certificates are issued by trusted authorities and contain information such as the professional's name, qualifications, and other relevant details. This information is used to verify the professional's identity and credentials, ensuring that they are qualified to provide healthcare services. Certificates also provide a way to authenticate the professional's identity and credentials, ensuring that the information contained in the certificate is accurate and up-to-date. This helps to ensure</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1071,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
@@ -2079,7 +2106,9 @@
       <c r="A78" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B78" s="20"/>
+      <c r="B78" s="22" t="s">
+        <v>164</v>
+      </c>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
       <c r="E78" s="14">
@@ -2090,66 +2119,105 @@
       <c r="A79" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="21" t="s">
+        <v>165</v>
+      </c>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
+      <c r="E79" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="20"/>
+      <c r="B80" s="22" t="s">
+        <v>166</v>
+      </c>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
+      <c r="E80" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B81" s="20"/>
+      <c r="B81" s="22" t="s">
+        <v>167</v>
+      </c>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
+      <c r="E81" s="14">
+        <v>9</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B82" s="20"/>
+      <c r="B82" s="22" t="s">
+        <v>168</v>
+      </c>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
+      <c r="E82" s="14">
+        <v>9</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B83" s="20"/>
+      <c r="B83" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
+      <c r="E83" s="14">
+        <v>9</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
+      <c r="E84" s="14">
+        <v>9</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B85" s="20"/>
+      <c r="B85" s="21" t="s">
+        <v>171</v>
+      </c>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
+      <c r="E85" s="14">
+        <v>9</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B86" s="20"/>
+      <c r="B86" s="21" t="s">
+        <v>172</v>
+      </c>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
+      <c r="E86" s="20">
+        <v>9</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A87" s="4"/>

--- a/examples_llama.xlsx
+++ b/examples_llama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliki\Desktop\wiki_chatbot_ncpeh_ehealthlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD522F49-BBE8-4CA5-8E9D-30E3B1E76F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2126EB-2AEB-4728-BE8D-0E1AEA545A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8585942-3168-4302-8051-D5360FE024DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="188">
   <si>
     <t>Question</t>
   </si>
@@ -558,13 +558,58 @@
   </si>
   <si>
     <t>Certificates are crucial for verification and authentication within the portal because they provide a secure and reliable way to verify the identity and credentials of healthcare professionals. Certificates are issued by trusted authorities and contain information such as the professional's name, qualifications, and other relevant details. This information is used to verify the professional's identity and credentials, ensuring that they are qualified to provide healthcare services. Certificates also provide a way to authenticate the professional's identity and credentials, ensuring that the information contained in the certificate is accurate and up-to-date. This helps to ensure</t>
+  </si>
+  <si>
+    <t>Electronic Cross-Border Healthcare is a set of services that allow European citizens to access healthcare in another EU country, while travelling or living abroad. The services are available under the brand “MyHealth@EU” and facilitate optimum response to EU Cross-Border Health Emergencies.</t>
+  </si>
+  <si>
+    <t>Electronic Cross-Border Services in the EU are services that allow European citizens to access their health data in another EU country. The Electronic Cross-Border Services in the EU are: 1. ePrescription 2. Patient Summary</t>
+  </si>
+  <si>
+    <t>MyHealth@EU is a European Commission initiative that aims to facilitate access to healthcare services for European citizens travelling or living in another EU country. MyHealth@EU is a set of services that allow European citizens to access their electronic prescriptions and patient summary reports in another EU country.</t>
+  </si>
+  <si>
+    <t>The ePrescription is a digital version of the paper prescription. It is a secure electronic message that contains the prescription information and is sent from the prescriber to the pharmacy. The ePrescription is sent to the pharmacy electronically, in a standard format, and is received by the pharmacy in the same format. The ePrescription is then processed by the pharmacy in the same way as a paper prescription..</t>
+  </si>
+  <si>
+    <t>eDispensation is a service that allows citizens in Europe to retrieve their medication in a pharmacy located in another European country, thanks to the online transfer of their electronic prescription from their country of affiliation (hereafter referred to as the country of residence) to their country of travel. Your country of residence is informed about the medicine you retrieve in the country of travel (eDispensation). Currently the following 2 Electronic Cross-Border Health services are progressively introduced in all EU countries: ePrescription Patient Summaries provide information on important health related aspects such as allergies, current medication,previous illness, surgeries, etc. It is part of a larger collection of health data called an European Health Record whose implementation across Europe is planned at a later stage. The digital Patient Summary is meant to provide doctors with essential information in their own language concerning the patient, when the patient comes from another EU country and there may be a linguistic barrier. In the long term, medical images, lab results and hospital discharge reports will also be available across the EU, with the full health record to follow later on. NCP eHealth(Cyprus) Portal - General Information Page</t>
+  </si>
+  <si>
+    <t>ePrescription is a digital prescription that is sent electronically from the prescriber to the pharmacy. It is a secure electronic message that contains the prescription details and is sent to the pharmacy electronically..</t>
+  </si>
+  <si>
+    <t>The European Health Record (EHR) is a digital collection of health data that will be available to healthcare professionals across Europe. It will contain information on allergies, current medication, previous illness, surgeries, etc. It is part of a larger collection of health data called an European Health Record whose implementation across Europe is planned at a later stage. The digital Patient Summary is meant to provide doctors with essential information in their own language concerning the patient, when the patient comes from another EU country and there may be a linguistic barrier. In the long term, medical images, lab results and hospital discharge reports will also be available across the EU, with the full health record to follow later on..</t>
+  </si>
+  <si>
+    <t>The Electronic Cross-Border Services in Europe will benefit European citizens in the following ways: 1. ePrescription: a.       It will be possible for European citizens to retrieve their medication in a pharmacy located in another European country, thanks to the online transfer of their electronic prescription from their country of affiliation (hereafter referred to as the country of residence) to their country of travel. b.       Their country of residence is informed about the medicine they retrieve in the country of travel (eDispensation). 2.      Patient Summaries: a.   Provide information on important health related aspects such as allergies, current medication, previous illness, surgeries, etc. b.       It is part of a larger collection of health data called an European Health Record whose implementation across Europe is planned at a later stage. c.      The digital Patient Summary is meant to provide doctors with essential information in their own language concerning the patient, when the patient comes from another EU country and there may be a linguistic barrier. d. In the long term, medical images, lab results and hospital discharge reports will also be available across</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The NCP eHealth(CY) Portal is a web-based application that allows healthcare professionals to access and manage patient data. The login process for the NCP eHealth(CY) Portal is as follows: 1. Go to the NCP eHealth(CY) Portal website (https://ncp.ehealth.gov.cy/) 2. Click on the "Login" button located in the top right corner of the page 3. Enter your username and password in the appropriate fields 4. Click on the "Login" button to access the NCP eHealth(CY) Portal 5. Once logged in, you will be able to access all the features and functions of the NCP eHealth(CY) Portal, including the ability to view patient data, create and manage patient records, and generate reports.. </t>
+  </si>
+  <si>
+    <t>The NCP eHealth(Cyprus) Portal is a web-based application that provides a secure and convenient way for users to access and manage their healthcare information. The portal is divided into several modules, each with its own set of features and functions. The main module of the NCP eHealth(Cyprus) Portal is the Patient Module. This module allows patients to access their health records, view test results, schedule appointments, and communicate with their healthcare providers. Patients can also use the portal to pay their bills and view their insurance information. The Doctor Module is another important module of the NCP eHealth(Cyprus) Portal. This module allows doctors to access patient records, view test results, and communicate with their patients. Doctors can also use the portal to schedule appointments and view their billing information. The Pharmacy Module is another important module of the NCP eHealth(Cyprus) Portal. This module allows pharmacists to access patient records, view test results, and communicate with their patients. Pharmacists can also use the portal to view their billing information and manage their inventory. The NCP eHe</t>
+  </si>
+  <si>
+    <t>Doctors can perform the following operations in the NCP eHealth(Cyprus) Portal: 1. Create/Edit Patient Summary 2. Add Patient Clinical Data Sections 3. Add Allergies 4. Add Drug Allergy 5. Add Surgical Procedures 6. Add Current Problem/Diagnosis 7. Add Medical Devices and Implants 8. Add Treatment Recommendation 9. Add Autonomy/Invalidity 10. Add Medication 11. Add Social History 12. Add Physical Findings 13. Add Diagnostic Tests 14. Add ePrescription</t>
+  </si>
+  <si>
+    <t>The Patient Summary Report includes the following information: 1. Patient Identification 2. Patient Contact Persons 3. Patient Insurance Information 4. Patient Clinical Data 5. Patient Medication Summary 6. Patient Allergies 7. Patient Surgical Procedures 8. Patient Current Problem/Diagnosis 9. Patient Medical Devices and Implants 10. Patient Treatment Recommendation 11. Patient Autonomy/Invalidity 12. Patient Social History 13. Patient Physical Findings 14. Patient Diagnostic Tests 15. Patient ePrescription</t>
+  </si>
+  <si>
+    <t>1. Search patient from Cyprus. 2. Provide CY national security number. 3. Retrieve Personal Details. 4. Retrieve PS list. 5. Open Clinical Document (translated XML document parsed in CDA Display Viewer). ###</t>
+  </si>
+  <si>
+    <t>1. The doctor logs in to the portal. 2. The doctor selects the EU patient. 3. The doctor selects the country of origin of the EU patient. 4. The doctor selects the reason of accessing the patient data. 5. The doctor clicks on the “Retrieve Medical Documents List” button. 6. The doctor opens the PDF document. 7. The doctor opens the CDA Display Viewer. 8. The doctor selects the PS list. 9. The doctor selects the clinical document. 10. The doctor selects the language of the clinical document. 11. The doctor selects the country of origin of the clinical document. 12. The doctor selects the reason of accessing the clinical document. 13</t>
+  </si>
+  <si>
+    <t>The clinical documents are displayed in the portal in the following way: 1. The clinical documents are displayed in the portal in the following way: 2. The clinical documents are displayed in the portal in the following way: 3. The clinical documents are displayed in the portal in the following way: 4. The clinical documents are displayed in the portal in the following way: 5. The clinical documents are displayed in the portal in the following way: 6. The clinical documents are displayed in the portal in the following way: 7. The clinical documents are displayed in the portal in the following way: 8. The clinical documents are displayed in the portal in the following way: 9. The clinical documents are displayed in the portal in the following way: 10. The clinical documents are displayed in the portal in the following way: 11. The clinical documents are displayed in the portal in the following way: 12. The clinical documents are displayed in the portal in the following way: 13. The clinical documents are displayed in the portal in the following way: 14. The clinical documents are displayed in the portal in the following way</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,22 +1114,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40910604-F693-4C05-AD9C-0EF2B8D88086}">
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="31.2"/>
   <cols>
     <col min="1" max="1" width="255.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="255.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.21875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.33203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" style="13" customWidth="1"/>
     <col min="5" max="5" width="45.44140625" style="14" customWidth="1"/>
     <col min="8" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,66 +1146,76 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" s="3" customFormat="1">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="12" t="s">
+        <v>176</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="36.6">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14">
         <v>5</v>
@@ -1169,14 +1224,16 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="36.6">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14">
         <v>1</v>
@@ -1185,14 +1242,16 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="36.6">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14">
         <v>1</v>
@@ -1201,14 +1260,16 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="36.6">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14">
         <v>1</v>
@@ -1217,14 +1278,16 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="36.6">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="17" t="s">
+        <v>180</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14">
         <v>1</v>
@@ -1233,137 +1296,157 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:8" s="3" customFormat="1">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="12" t="s">
+        <v>181</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:8" s="3" customFormat="1">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="17" t="s">
+        <v>182</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:8" s="3" customFormat="1">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" ht="249.6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="249.6">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:5" s="3" customFormat="1">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="17" t="s">
+        <v>186</v>
+      </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:5" s="3" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:5" s="3" customFormat="1">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="19" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:5" s="3" customFormat="1">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -1376,7 +1459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:5" s="3" customFormat="1">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -1389,7 +1472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:5" s="3" customFormat="1">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -1402,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:5" s="3" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1415,7 +1498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:5" s="3" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -1428,7 +1511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:5" s="3" customFormat="1">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -1441,7 +1524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:5" s="3" customFormat="1">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -1454,7 +1537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:5" s="3" customFormat="1">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1467,7 +1550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:5" s="3" customFormat="1">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -1480,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:5" s="3" customFormat="1">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -1493,7 +1576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:5" s="3" customFormat="1">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -1506,7 +1589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:5" s="3" customFormat="1">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -1519,7 +1602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:5" s="3" customFormat="1">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
@@ -1532,7 +1615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:5" s="3" customFormat="1">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
@@ -1545,7 +1628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:5" s="3" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -1558,7 +1641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:5" s="3" customFormat="1">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -1571,7 +1654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:5" s="3" customFormat="1">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1584,7 +1667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:5" s="3" customFormat="1">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1597,7 +1680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:5" s="3" customFormat="1">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1610,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:5" s="3" customFormat="1">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
@@ -1623,7 +1706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:5" s="3" customFormat="1">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
@@ -1636,7 +1719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:5" s="3" customFormat="1">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
@@ -1649,7 +1732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:5" s="3" customFormat="1">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1662,7 +1745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:5" s="3" customFormat="1">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -1675,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:5" s="3" customFormat="1">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
@@ -1688,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:5" s="3" customFormat="1">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
@@ -1701,7 +1784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:5" s="3" customFormat="1">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
@@ -1714,7 +1797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:5" s="3" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -1727,7 +1810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:5" s="3" customFormat="1">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
@@ -1740,7 +1823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:5" s="3" customFormat="1">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -1753,7 +1836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:5" s="3" customFormat="1">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
@@ -1766,7 +1849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:5" s="3" customFormat="1">
       <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
@@ -1779,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:5" s="3" customFormat="1">
       <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
@@ -1792,7 +1875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:5" s="3" customFormat="1">
       <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
@@ -1805,7 +1888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:5" s="3" customFormat="1">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
@@ -1818,7 +1901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:5">
       <c r="A56" s="4" t="s">
         <v>74</v>
       </c>
@@ -1829,7 +1912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>75</v>
       </c>
@@ -1842,7 +1925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:5">
       <c r="A58" s="4" t="s">
         <v>76</v>
       </c>
@@ -1855,7 +1938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="4" t="s">
         <v>77</v>
       </c>
@@ -1868,7 +1951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="4" t="s">
         <v>78</v>
       </c>
@@ -1881,7 +1964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="4" t="s">
         <v>79</v>
       </c>
@@ -1894,7 +1977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="4" t="s">
         <v>80</v>
       </c>
@@ -1907,7 +1990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
         <v>81</v>
       </c>
@@ -1920,7 +2003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="4" t="s">
         <v>82</v>
       </c>
@@ -1933,7 +2016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="4" t="s">
         <v>83</v>
       </c>
@@ -1946,7 +2029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="4" t="s">
         <v>84</v>
       </c>
@@ -1959,7 +2042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="4" t="s">
         <v>85</v>
       </c>
@@ -1972,7 +2055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="4" t="s">
         <v>86</v>
       </c>
@@ -1985,7 +2068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="4" t="s">
         <v>87</v>
       </c>
@@ -1998,7 +2081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="4" t="s">
         <v>88</v>
       </c>
@@ -2011,7 +2094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="4" t="s">
         <v>89</v>
       </c>
@@ -2024,7 +2107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" s="4" t="s">
         <v>90</v>
       </c>
@@ -2037,7 +2120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" s="4" t="s">
         <v>91</v>
       </c>
@@ -2050,7 +2133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" s="4" t="s">
         <v>92</v>
       </c>
@@ -2063,7 +2146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" s="4" t="s">
         <v>93</v>
       </c>
@@ -2076,7 +2159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" s="4" t="s">
         <v>94</v>
       </c>
@@ -2089,7 +2172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" s="4" t="s">
         <v>95</v>
       </c>
@@ -2102,7 +2185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" s="4" t="s">
         <v>96</v>
       </c>
@@ -2115,7 +2198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" s="4" t="s">
         <v>97</v>
       </c>
@@ -2128,7 +2211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" s="4" t="s">
         <v>98</v>
       </c>
@@ -2141,7 +2224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" s="4" t="s">
         <v>99</v>
       </c>
@@ -2154,7 +2237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" s="4" t="s">
         <v>100</v>
       </c>
@@ -2167,7 +2250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" s="4" t="s">
         <v>101</v>
       </c>
@@ -2180,7 +2263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" s="4" t="s">
         <v>102</v>
       </c>
@@ -2193,7 +2276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" s="4" t="s">
         <v>103</v>
       </c>
@@ -2206,7 +2289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" s="4" t="s">
         <v>104</v>
       </c>
@@ -2219,163 +2302,163 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:5">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:5">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:5">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:5">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:5">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:5">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:5">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:5">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:5">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:5">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:1">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:1">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:1">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:1">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:1">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:1">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:1">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:1">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:1">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:1">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:1">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:1">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:1">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:1">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:1">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:1">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:1">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:1">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:1">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:1">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:1">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:1">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:1">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:1">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:1">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:1">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:1">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:1">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:1">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:1">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:1">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:1">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:1">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:1">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:1">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:1">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:1">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:1">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:1">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:1">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:1">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:1">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:1">
       <c r="A139" s="4"/>
     </row>
   </sheetData>

--- a/examples_llama.xlsx
+++ b/examples_llama.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliki\Desktop\wiki_chatbot_ncpeh_ehealthlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2126EB-2AEB-4728-BE8D-0E1AEA545A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BF2264-EBBC-44B5-8802-5D1E9E5A7D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8585942-3168-4302-8051-D5360FE024DE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8585942-3168-4302-8051-D5360FE024DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="210">
   <si>
     <t>Question</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>What information does the Patient Summary contain?</t>
-  </si>
-  <si>
-    <t>How should doctors and pharmacists handle patient health data to comply with privacy laws in the country of travel?</t>
   </si>
   <si>
     <t>What role does the national portal play in informing patients about electronic cross-border services?</t>
@@ -603,6 +600,75 @@
   </si>
   <si>
     <t>The clinical documents are displayed in the portal in the following way: 1. The clinical documents are displayed in the portal in the following way: 2. The clinical documents are displayed in the portal in the following way: 3. The clinical documents are displayed in the portal in the following way: 4. The clinical documents are displayed in the portal in the following way: 5. The clinical documents are displayed in the portal in the following way: 6. The clinical documents are displayed in the portal in the following way: 7. The clinical documents are displayed in the portal in the following way: 8. The clinical documents are displayed in the portal in the following way: 9. The clinical documents are displayed in the portal in the following way: 10. The clinical documents are displayed in the portal in the following way: 11. The clinical documents are displayed in the portal in the following way: 12. The clinical documents are displayed in the portal in the following way: 13. The clinical documents are displayed in the portal in the following way: 14. The clinical documents are displayed in the portal in the following way</t>
+  </si>
+  <si>
+    <t>The pharmacist in the country of travel will be able to view on their computer the ePrescription prepared by the patient's doctor in their country of residence and provide the prescribed medicine. When citizens travel from their country of residence to another country in Europe and find themselves in the necessity of consulting a doctor in that country, doctors will be able to access the Patient Summary, which contains essential medical information related to the patient. This will help doctors to formulate an adequate treatment, avoid some possible risk (for instance in case of allergy) and overcome linguistic barriers. The Patient Summary will then be substituted at a later stage by the European Health Record which will contain more comprehensive health data. In order to enable the services to fully operate, citizens will be informed on whether their health data are available for cross-border services before travelling. In some countries citizens might be required to explicitly give their authorization in order to have their health data made available abroad. In any case, making health data available for cross-border exchange is needed in order for pharmacists and doctors to access it from the country where the patient travels. Adequate IT infrastructure has</t>
+  </si>
+  <si>
+    <t>The doctor in the country of travel can access the patient's health data through the electronic cross-border services.</t>
+  </si>
+  <si>
+    <t>In the context of cross-border healthcare services, your personal data will always be treated and protected in accordance with the existing EU legislation and with the current practices in your country of residence and the country of travel. In some countries, the cross-border exchange of your health data might be allowed by law and doesn’t require any action from your part. In other countries of residence, on the contrary, you need to actively give your consent, meaning that you will have to sign a document (similar to a Privacy statement). Depending on your country, you can do this by contacting your doctor or electronically, by connecting to a specific website/web portal setup by your national authority. Please note that in case your consent is required and you don’t give it in your country of residence before your departure or through mobile portal while travelling, it will not be possible for the pharmacist or the doctor in the country of destination to access your health data. In your country of residence, you may also be asked to sign another document (similar to a Privacy statement) which allows the pharmacist or the doctor in that country to access your health data. It is important to know that your health data are being exchanged through</t>
+  </si>
+  <si>
+    <t>The patient can request the medication from the pharmacy of the country of travel. The pharmacy will then contact the pharmacy of the country of residence to request the medication. The pharmacy of the country of residence will then send the medication to the pharmacy of the country of travel. The patient will pay the full cost of the medication in the country of travel. The patient can then request reimbursement from his/her insurer when he/she returns to his/her country of residence. Reimbursement may then be granted or not, depending on the national health insurance system of the country of residence..</t>
+  </si>
+  <si>
+    <t>The European Health Insurance Card (EHIC) is a document that gives you the right to access state-provided healthcare during a temporary stay in another EU country. It is not an alternative to having your own personal health insurance. The EHIC is not a substitute for travel insurance. It does not cover medical repatriation, ongoing medical treatment or non-urgent medical attention. The EHIC is not valid for medical repatriation, ongoing medical treatment or non-urgent medical attention.</t>
+  </si>
+  <si>
+    <t>Depending on the member state, you may be required, before your departure,to check via your doctor or your national patients’ portal if your health data are automatically available for electronic cross-border services or if you need to give your consent for that. If you have online access to your health data, please pay attention to the instructions you receive on how to give your consent electronically. Make sure you have a document to clearly identify yourself (see question below) If needed, give consent to allow the pharmacist/doctor to access your health data. Do I have access to the same health services in my country of travel as the citizens living there? As an EU citizen, if you unexpectedly fall ill during atemporary stay abroad, you are entitled to any treatment that can't wait until you get home. You have the same rights to healthcare as people insured in the country you are in. It is advisable to take your European Health Insurance Card (EHIC) with you on all trips abroad This card is the physical proof that you are insured in an EU country and will simplify payment and reimbursement procedures.However,if you don't have your card or if it is not</t>
+  </si>
+  <si>
+    <t>As an EU citizen, if you unexpectedly fall ill during a temporary stay abroad, you are entitled to any treatment that can't wait until you get home. You have the same rights to healthcare as people insured in the country you are in. It is advisable to take your European Health Insurance Card (EHIC) with you on all trips abroad This card is the physical proof that you are insured in an EU country and will simplify payment and reimbursement procedures.However,if you don't have your card or if it is not possible to use it, you may not be refused treatment. You may, however, have to pay for it upfront and claim reimbursement once back home..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pharmacists in your country of travel will get your ePrescription in their own language, together with an original copy of your ePrescription which is in your language. So, the prescription originally done by your doctor will be available in the pharmacist's system in both languages. How will I know how to take the medication? The terms of use of your medicine (package leaflet) will be available in the language(s) of the country of travel and might be also available in other languages. Concerning the patient-specific guidance, it will be available in your own language and the pharmacist will explain to you in the best possible way how to take your medicine. What document do I need to take with me when going to a Pharmacy or consulting a doctor abroad? When requesting your medicine in a pharmacy in the country of travel or if you consult a doctor there, you will need to clearly identify yourself. Each country has defined the type of identification document that the patient has to show to identify themselves when using the ePrescription. You need to check with your own national contact point for eHealth what identification document you need. Unfortunately, there is </t>
+  </si>
+  <si>
+    <t>When requesting your medicine in a pharmacy in the country of travel or if you consult a doctor there, you will need to clearly identify yourself. Each country has defined the type of identification document that the patient has to show to identify themselves when using the ePrescription. You need to check with your own national contact point for eHealth what identification document you need. Unfortunately, there is no absolute certainty that a specific prescription can be dispensed. The supply of medicines at a pharmacy in your country of travel may be more limited than in your country of residence, the pharmacy may not stock the medicine, and there is no available substitution. Furthermore, the medicine in question may not have a marketing authorisation in the country of travel. The pharmacist may also refuse to dispense a medication due to the substitution rules for medicinal products in the country of travel. A pharmacy dispenses the medication according to the legislation in its country. My prescription is quite ordinary. Why can't the pharmacy in my country of travel dispense the medicine? You will need to pay the full cost in the country of travel.You can request reimbursement from your</t>
+  </si>
+  <si>
+    <t>You will need to pay the full cost in the country of travel. You can request reimbursement from your insurer when you return to your country of residence (the country of prescription). Reimbursement will then be granted or not, depending on your national health insurance system..</t>
+  </si>
+  <si>
+    <t>If the patient is unable to obtain medicine from a pharmacy in the country of travel, he/she should contact his/her doctor in the country of residence. The doctor will be able to issue an ePrescription and the patient will be able to retrieve the prescribed medicine from a pharmacy in the country of residence..</t>
+  </si>
+  <si>
+    <t>Doctors and pharmacists, according to the legislation in the countries of travel, can have access to the patient's health data only if the patient's health data is available for electronic cross border services. In some countries of residence, citizens are required to explicitly give their consent, whereas in other countries of residence, the electronic cross-border exchange of patient's health data might be allowed by law and does not require any action from the patient's part. In any case, pharmacists and doctors in the country of treatment can only access health data if it has been made available for electronic cross-border exchange by the country of residence. In addition, in some countries of travel, doctors and pharmacists may have to ask the foreign patient to sign an additional Privacy statement, to enable them to comply with the law in their country and to be able to process patient's data..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will write your ePrescription in your own language. When the patient will ask for medicines in the country of travel, the pharmacist will receive the ePrescription both in the original language and in their own language. Translation is done automatically by the underlying digital infrastructure.. </t>
+  </si>
+  <si>
+    <t>The Patient Summary can contain the following patient clinical data: - Alerts and allergies; - Medical history (vaccination, past problems, surgical procedures before the last six months); - Current medical state (current problems, medical devices and implants, intake of medicines, treatment recommendations, surgical procedures within the last six months); - Social history; - Pregnancy history (if relevant); - Physical findings; - Diagnostic tests. It is not mandatory that all this information exists. This means that there might be situations when only part of the information is available. For instance when the information was not available in the systems; the information could not be translated into other languages; there is no known information for that patient; etc. Refer to the training provided by your national contact point for eHealth on how to read the information in the Patient Summary. If you have not received any training, please contact your national contact point for eHealth..</t>
+  </si>
+  <si>
+    <t>The Patient Summary can contain the following patient clinical data: - Alerts and allergies; - Medical history (vaccination, past problems, surgical procedures before the last six months); - Current medical state (current problems, medical devices and implants, intake of medicines, treatment recommendations, surgical procedures within the last six months); - Social history; - Pregnancy history (if relevant); - Physical findings; - Diagnostic tests. It is not mandatory that all this information exists. This means that there might be situations when only part of the information is available. For instance when the information was not available in the systems; the information could not be translated into other languages; there is no known information for that patient; etc. Refer to the training provided by your national contact point for eHealth on how to read the information in the Patient Summary. If you have not received any training, please contact your National eHealth Authority..</t>
+  </si>
+  <si>
+    <t>The National eHealth Authority (NeHA) is responsible for the implementation of the Electronic Cross-Border Services in Cyprus</t>
+  </si>
+  <si>
+    <t>The Patient Summary can contain the following patient clinical data: - Alerts and allergies; - Medical history (vaccination, past problems, surgical procedures before the last six months); - Current medical state (current problems, medical devices and implants, intake of medicines, treatment recommendations, surgical procedures within the last six months); - Social history; - Pregnancy history (if relevant); - Physical findings; - Diagnostic tests. It is not mandatory that all this information exists. This means that there might be situations when only part of the information is available. For instance when the information was not available in the systems; the information could not be translated into other languages; there is no known information for that patient; etc. Refer to the training provided by your national contact point for eHealth on how to read the information in the Patient Summary. If you have not received any training, please contact your National eHealth Authority. What is the information available in the Patient Summary?</t>
+  </si>
+  <si>
+    <t>You are an expert in answering questions related to the Deployment of Generic Cross Border eHealth in Cyprus. Given a question and relevant information from the article 'NCP eHealth(Cyprus) Portal - Information for the Patient Page 9 National eHealth Authority - Cyprus Please request a prescription from a doctor in the country of travel. No, such a prescription cannot be dispensed in your country of residence using the cross border electronic services. In case you received a paper copy of your prescription and provided the prescription includes the required information, the pharmacy from your country of residence should dispense your prescription. For acting on behalf of someone else, you must follow the applicable provisions of each country. This first depends on the national provisions implementing data protection legislation in each country, but also, depending on the country and your needs, you might be asked to provide additional documents as proof of authority to act on behalf of another person (e.g. proof of your identity, birth certificate if you are acting on behalf of a minor, power of attorney). Please consider there might be countries which do not allow acting on behalf of someone else in such situations. I</t>
+  </si>
+  <si>
+    <t>No, such a prescription cannot be dispensed in your country of residence using the cross border electronic services. In case you received a paper copy of your prescription and provided the prescription includes the required information, the pharmacy from your country of residence should dispense your prescription. For acting on behalf of someone else, you must follow the applicable provisions of each country. This first depends on the national provisions implementing data protection legislation in each country, but also, depending on the country and your needs, you might be asked to provide additional documents as proof of authority to act on behalf of another person (e.g. proof of your identity, birth certificate if you are acting on behalf of a minor, power of attorney). Please consider there might be countries which do not allow acting on behalf of someone else in such situations. I was unable to obtain medicine from a pharmacy in my country of travel, but I need it urgently. What shall I do? I am a European citizen who travelled to another European country and had an electronic prescription issued in the country of travel. Can I retrieve the prescribed medicine from my country of residence? Can I purchase medicines on beh</t>
+  </si>
+  <si>
+    <t>You are an expert in answering questions related to the Deployment of Generic Cross Border eHealth in Cyprus. Given a question and relevant information from the article 'NCP eHealth(CY) Portal - Doctors in the Country of Residence Page 12 National eHealth Authority - Cyprus You will write your ePrescription in your own language. When the patient will ask for medicines in the country of travel, the pharmacist will receive thee Prescription both in theoriginal languageand in their own language. Translation is done automatically by the underlying digital infrastructure. What is the information available in the Patient Summary? The Patient Summary can contain the following patient clinical data: - Alerts and allergies; - Medical history (vaccination, past problems, surgical procedures before the last six months); - Current medical state (current problems, medical devices and implants, intake of medicines, treatment recommendations, surgical procedures within the last six months); - Social history; - Pregnancy history (ifrelevant); - Physical findings; - Diagnostic tests. It is not mandatory that all this information exists. This means that there might</t>
+  </si>
+  <si>
+    <t>The Patient Summary can contain the following patient clinical data: - Alerts and allergies; - Medical history (vaccination, past problems, surgical procedures before the last six months); - Current medical state (current problems, medical devices and implants, intake of medicines, treatment recommendations, surgical procedures within the last six months); - Social history; - Pregnancy history (if relevant); - Physical findings; - Diagnostic tests. It is not mandatory that all this information exists. This means that there might be situations when only part of the information is available. For instance when the information was not available in the systems; the information could not be translated into other languages; there is no known information for that patient; etc. Refer to the training provided by your national contact point for eHealth on how to read the information in the Patient Summary. If you have not received any training, please contact your national contact point for eHealth. In what language do I have to write my ePrescription? NCP eHealth(CY) Portal - Doctors in the Country of Travel Page 13 National eHealth</t>
+  </si>
+  <si>
+    <t>Once you have identified yourself in the hospital information system and you checked the patient's identity, you will request to access the patient's data provided by the underlying digital infrastructure. If the data are not available for cross-border services, the system will inform you. Before accessing the Patient summary for the consultation, you must inform the patient on their health data will be processed in the country of travel. Depending on your national privacy laws, you may have to ask the patient to sign a new Privacy statement. If you are not able to access the Patient Summary, the system will give you an error message and inform you about the cause. One of the causes might be that the patient did not make their health data available before leaving their country of residence. You should advise the patient to contact their doctor when back in their country of residence and perform the consultation as usual..</t>
+  </si>
+  <si>
+    <t>You need to check with your own national contact point for eHealth what identification document you are allowed to ask to the patient. Once you have identified yourself in the pharmacy information system and you have also checked the patient's identity, you will request to access the patient's data provided by the underlying digital infrastructure. If the data are not available for electronic cross border exchange, the system will inform you. Before accessing the ePrescription, you must inform the patient on how their health data will be processed in the country of travel. Depending on your national privacy laws, you may also have to ask the patient to sign a new Privacy statement. If you are not able to access the, the system will give you an error message and inform you about the cause. One of the causes might be that the patient did not make their health data available before leaving their country of residence. In this case, depending on the Member State, you should advise the patient to either access the national online portal to give permission or contact their doctor when back in their country of residence..</t>
   </si>
 </sst>
 </file>
@@ -648,7 +714,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,6 +763,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -725,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,6 +845,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,9 +1187,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40910604-F693-4C05-AD9C-0EF2B8D88086}">
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.2"/>
@@ -1134,16 +1207,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1">
@@ -1151,10 +1224,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14">
@@ -1166,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14">
@@ -1181,10 +1254,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14">
@@ -1196,10 +1269,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14">
@@ -1211,17 +1284,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14">
         <v>5</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="36.6">
@@ -1229,17 +1302,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="36.6">
@@ -1247,17 +1320,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14">
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="36.6">
@@ -1265,17 +1338,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14">
         <v>1</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="36.6">
@@ -1283,17 +1356,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14">
         <v>1</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1">
@@ -1301,10 +1374,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14">
@@ -1316,10 +1389,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14">
@@ -1331,10 +1404,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14">
@@ -1346,10 +1419,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14">
@@ -1361,10 +1434,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14">
@@ -1376,10 +1449,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14">
@@ -1391,10 +1464,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14">
@@ -1406,10 +1479,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14">
@@ -1421,10 +1494,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14">
@@ -1436,10 +1509,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14">
@@ -1451,9 +1524,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>187</v>
+      </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14">
         <v>2</v>
@@ -1464,9 +1539,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="D22" s="13"/>
       <c r="E22" s="14">
         <v>3</v>
@@ -1477,9 +1554,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="D23" s="13"/>
       <c r="E23" s="14">
         <v>4</v>
@@ -1490,9 +1569,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D24" s="13"/>
       <c r="E24" s="14">
         <v>2</v>
@@ -1503,9 +1584,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>189</v>
+      </c>
       <c r="D25" s="13"/>
       <c r="E25" s="14">
         <v>2</v>
@@ -1516,9 +1599,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="D26" s="13"/>
       <c r="E26" s="14">
         <v>2</v>
@@ -1529,9 +1614,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="D27" s="13"/>
       <c r="E27" s="14">
         <v>6</v>
@@ -1542,9 +1629,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="13"/>
+        <v>120</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="D28" s="13"/>
       <c r="E28" s="14">
         <v>2</v>
@@ -1555,9 +1644,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="13"/>
+        <v>121</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="D29" s="13"/>
       <c r="E29" s="14">
         <v>1</v>
@@ -1568,9 +1659,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="D30" s="13"/>
       <c r="E30" s="14">
         <v>2</v>
@@ -1581,9 +1674,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="D31" s="13"/>
       <c r="E31" s="14">
         <v>2</v>
@@ -1594,9 +1689,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="13"/>
+        <v>124</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="D32" s="13"/>
       <c r="E32" s="14">
         <v>2</v>
@@ -1607,9 +1704,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>193</v>
+      </c>
       <c r="D33" s="13"/>
       <c r="E33" s="14">
         <v>2</v>
@@ -1620,9 +1719,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>194</v>
+      </c>
       <c r="D34" s="13"/>
       <c r="E34" s="14">
         <v>2</v>
@@ -1633,9 +1734,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="13"/>
+        <v>127</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="D35" s="13"/>
       <c r="E35" s="14">
         <v>2</v>
@@ -1646,9 +1749,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="13"/>
+        <v>128</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>195</v>
+      </c>
       <c r="D36" s="13"/>
       <c r="E36" s="14">
         <v>2</v>
@@ -1659,9 +1764,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="D37" s="13"/>
       <c r="E37" s="14">
         <v>2</v>
@@ -1672,9 +1779,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="13"/>
+        <v>130</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="D38" s="13"/>
       <c r="E38" s="14">
         <v>3</v>
@@ -1685,9 +1794,11 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="13"/>
+        <v>131</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D39" s="13"/>
       <c r="E39" s="14">
         <v>3</v>
@@ -1698,9 +1809,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="D40" s="13"/>
       <c r="E40" s="14">
         <v>3</v>
@@ -1711,9 +1824,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>198</v>
+      </c>
       <c r="D41" s="13"/>
       <c r="E41" s="14">
         <v>3</v>
@@ -1724,9 +1839,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="13"/>
+        <v>134</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>199</v>
+      </c>
       <c r="D42" s="13"/>
       <c r="E42" s="14">
         <v>3</v>
@@ -1737,22 +1854,24 @@
         <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="D43" s="13"/>
       <c r="E43" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="3" customFormat="1">
-      <c r="A44" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A44" s="4"/>
       <c r="B44" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>201</v>
+      </c>
       <c r="D44" s="13"/>
       <c r="E44" s="14">
         <v>3</v>
@@ -1760,12 +1879,14 @@
     </row>
     <row r="45" spans="1:5" s="3" customFormat="1">
       <c r="A45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="13"/>
+        <v>136</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>202</v>
+      </c>
       <c r="D45" s="13"/>
       <c r="E45" s="14">
         <v>1</v>
@@ -1773,12 +1894,14 @@
     </row>
     <row r="46" spans="1:5" s="3" customFormat="1">
       <c r="A46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>203</v>
+      </c>
       <c r="D46" s="13"/>
       <c r="E46" s="14">
         <v>3</v>
@@ -1786,12 +1909,14 @@
     </row>
     <row r="47" spans="1:5" s="3" customFormat="1">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="13"/>
+        <v>137</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="D47" s="13"/>
       <c r="E47" s="14">
         <v>3</v>
@@ -1799,12 +1924,14 @@
     </row>
     <row r="48" spans="1:5" s="3" customFormat="1">
       <c r="A48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="13"/>
+        <v>138</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="D48" s="13"/>
       <c r="E48" s="14">
         <v>3</v>
@@ -1812,12 +1939,14 @@
     </row>
     <row r="49" spans="1:5" s="3" customFormat="1">
       <c r="A49" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" s="13"/>
+        <v>139</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>204</v>
+      </c>
       <c r="D49" s="13"/>
       <c r="E49" s="14">
         <v>3</v>
@@ -1825,12 +1954,14 @@
     </row>
     <row r="50" spans="1:5" s="3" customFormat="1">
       <c r="A50" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="13"/>
+        <v>140</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>205</v>
+      </c>
       <c r="D50" s="13"/>
       <c r="E50" s="14">
         <v>3</v>
@@ -1838,12 +1969,14 @@
     </row>
     <row r="51" spans="1:5" s="3" customFormat="1">
       <c r="A51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="13"/>
+        <v>141</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="D51" s="13"/>
       <c r="E51" s="14">
         <v>3</v>
@@ -1851,12 +1984,14 @@
     </row>
     <row r="52" spans="1:5" s="3" customFormat="1">
       <c r="A52" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>206</v>
+      </c>
       <c r="D52" s="13"/>
       <c r="E52" s="14">
         <v>4</v>
@@ -1864,12 +1999,14 @@
     </row>
     <row r="53" spans="1:5" s="3" customFormat="1">
       <c r="A53" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>207</v>
+      </c>
       <c r="D53" s="13"/>
       <c r="E53" s="14">
         <v>4</v>
@@ -1877,12 +2014,14 @@
     </row>
     <row r="54" spans="1:5" s="3" customFormat="1">
       <c r="A54" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="13"/>
+        <v>143</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="D54" s="13"/>
       <c r="E54" s="14">
         <v>4</v>
@@ -1890,12 +2029,14 @@
     </row>
     <row r="55" spans="1:5" s="3" customFormat="1">
       <c r="A55" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="13"/>
+        <v>142</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>206</v>
+      </c>
       <c r="D55" s="13"/>
       <c r="E55" s="14">
         <v>4</v>
@@ -1903,10 +2044,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="E56" s="14">
         <v>5</v>
@@ -1914,12 +2058,14 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" s="20"/>
+        <v>145</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="D57" s="20"/>
       <c r="E57" s="14">
         <v>5</v>
@@ -1927,12 +2073,14 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="20"/>
+        <v>146</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="D58" s="20"/>
       <c r="E58" s="14">
         <v>5</v>
@@ -1940,12 +2088,14 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="20"/>
+        <v>147</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="D59" s="20"/>
       <c r="E59" s="14">
         <v>5</v>
@@ -1953,12 +2103,14 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C60" s="20"/>
+        <v>148</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="D60" s="20"/>
       <c r="E60" s="14">
         <v>5</v>
@@ -1966,12 +2118,14 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" s="20"/>
+        <v>149</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="D61" s="20"/>
       <c r="E61" s="14">
         <v>5</v>
@@ -1979,12 +2133,14 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="D62" s="20"/>
       <c r="E62" s="14">
         <v>5</v>
@@ -1992,12 +2148,14 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C63" s="20"/>
+        <v>151</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>151</v>
+      </c>
       <c r="D63" s="20"/>
       <c r="E63" s="14">
         <v>5</v>
@@ -2005,12 +2163,14 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C64" s="20"/>
+        <v>152</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>152</v>
+      </c>
       <c r="D64" s="20"/>
       <c r="E64" s="14">
         <v>5</v>
@@ -2018,12 +2178,14 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C65" s="20"/>
+        <v>148</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>148</v>
+      </c>
       <c r="D65" s="20"/>
       <c r="E65" s="14">
         <v>5</v>
@@ -2031,10 +2193,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
@@ -2044,12 +2206,14 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" s="20"/>
+        <v>153</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>153</v>
+      </c>
       <c r="D67" s="20"/>
       <c r="E67" s="14">
         <v>6</v>
@@ -2057,12 +2221,14 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="20"/>
+        <v>154</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>154</v>
+      </c>
       <c r="D68" s="20"/>
       <c r="E68" s="14">
         <v>6</v>
@@ -2070,10 +2236,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -2083,12 +2249,14 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" s="20"/>
+        <v>155</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="D70" s="20"/>
       <c r="E70" s="14">
         <v>7</v>
@@ -2096,12 +2264,14 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="20"/>
+        <v>156</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="D71" s="20"/>
       <c r="E71" s="14">
         <v>7</v>
@@ -2109,10 +2279,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -2122,10 +2292,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
@@ -2135,10 +2305,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
@@ -2148,10 +2318,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -2161,10 +2331,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -2174,10 +2344,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -2187,12 +2357,14 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="20"/>
+        <v>163</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>163</v>
+      </c>
       <c r="D78" s="20"/>
       <c r="E78" s="14">
         <v>8</v>
@@ -2200,10 +2372,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
@@ -2213,12 +2385,14 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" s="20"/>
+        <v>165</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>165</v>
+      </c>
       <c r="D80" s="20"/>
       <c r="E80" s="14">
         <v>8</v>
@@ -2226,10 +2400,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
@@ -2239,12 +2413,14 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" s="20"/>
+        <v>167</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>167</v>
+      </c>
       <c r="D82" s="20"/>
       <c r="E82" s="14">
         <v>9</v>
@@ -2252,10 +2428,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
@@ -2265,12 +2441,14 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="20"/>
+        <v>169</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="D84" s="20"/>
       <c r="E84" s="14">
         <v>9</v>
@@ -2278,10 +2456,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
@@ -2291,10 +2469,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>

--- a/examples_llama.xlsx
+++ b/examples_llama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliki\Desktop\wiki_chatbot_ncpeh_ehealthlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BF2264-EBBC-44B5-8802-5D1E9E5A7D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AFC137-E871-4828-82E6-D3F19F43F448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8585942-3168-4302-8051-D5360FE024DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8585942-3168-4302-8051-D5360FE024DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="219">
   <si>
     <t>Question</t>
   </si>
@@ -669,6 +669,33 @@
   </si>
   <si>
     <t>You need to check with your own national contact point for eHealth what identification document you are allowed to ask to the patient. Once you have identified yourself in the pharmacy information system and you have also checked the patient's identity, you will request to access the patient's data provided by the underlying digital infrastructure. If the data are not available for electronic cross border exchange, the system will inform you. Before accessing the ePrescription, you must inform the patient on how their health data will be processed in the country of travel. Depending on your national privacy laws, you may also have to ask the patient to sign a new Privacy statement. If you are not able to access the, the system will give you an error message and inform you about the cause. One of the causes might be that the patient did not make their health data available before leaving their country of residence. In this case, depending on the Member State, you should advise the patient to either access the national online portal to give permission or contact their doctor when back in their country of residence..</t>
+  </si>
+  <si>
+    <t>The NCP eHealth(CY) Portal is a crucial component of the NCP eHealth(CY) framework, which aims to facilitate secure cross-border healthcare services in Cyprus. The portal is managed by the National eHealth Authority (NeHA), which is responsible for creating and managing user roles and access levels. The portal is designed to facilitate secure communication between healthcare professionals and pharmacies, and to ensure the integrity of sensitive healthcare data. The portal is managed by a team of NeHA Administrators, who are responsible for creating and managing user roles and access levels. The Administrators work closely with Operators, who are responsible for managing the day-to-day operations of the portal. The Administrators and Operators collaborate to ensure that the portal is secure and that healthcare professionals and pharmacies have the appropriate access levels to perform their duties. The Administrators and Operators work together to ensure that the portal is secure and that healthcare professionals and pharmacies have the appropriate access levels to perform their duties. The Administrators create and manage user roles and access levels, while the Operators manage the day-to-day operations</t>
+  </si>
+  <si>
+    <t>The MyHealth@EU Service is depicted in the graphical flow diagram as a centralized system that facilitates the secure exchange of healthcare data between healthcare providers and patients. The system is designed to ensure the privacy and security of patient data, with a focus on cross-border services. The graphical flow diagram depicts the various roles and responsibilities involved in the system, including the patient, healthcare provider, and the National eHealth Authority. The diagram also highlights the various steps involved in the process, including the creation of a patient profile, the exchange of healthcare data, and the verification of the data. The diagram also shows the various security measures in place to protect patient data, including encryption and authentication. The graphical flow diagram provides a clear and concise overview of the MyHealth@EU Service, highlighting the key components and processes involved in the system..</t>
+  </si>
+  <si>
+    <t>The NCPeH CY framework in Cyprus represents a crucial advancement in safeguarding healthcare data and ensuring patient privacy and security. At the heart of this system lies a network of roles and responsibilities designed to uphold the integrity of sensitive information and facilitate secure cross-border services. The following subsections outline the key roles and corresponding responsibilities. within the NCPeH CY framework, elucidating the collaborative efforts required to fortify the healthcare ecosystem against cyber threats and privacy breaches. Roles and responsibilities of the National Registry Portal Introduction - NCP Registry Roles NCP eHealth(Cyprus) Portal - Registry Roles Page 25 National eHealth Authority - Cyprus Role Administrator - NeHA The Administrator NeHA is a central figure in the management of the healthcare administration system NCPeH CY.This role is endowed with creating new users a level of access and control, primarily focusing on the access control and management of the system. Responsibilities Adding New Roles: The Administrator NeHA is responsible for creating new roles within the system</t>
+  </si>
+  <si>
+    <t>The graphical flow of the MyHealth@EU Service is a visual representation of the steps involved in the process of exchanging health data between different healthcare providers in the European Union. The graphical flow consists of several stages or components, each with a specific purpose and function. The first stage is the registration of healthcare providers. This stage involves the creation of a profile for each healthcare provider, including their name, address, and other relevant information. This information is used to identify the healthcare provider and to ensure that they are authorized to participate in the exchange of health data. The second stage is the creation of a patient profile. This stage involves the creation of a profile for each patient, including their name, address, and other relevant information. This information is used to identify the patient and to ensure that they are authorized to participate in the exchange of health data. The third stage is the creation of a health data exchange agreement. This stage involves the creation of an agreement between the healthcare provider and the patient, outlining the terms and conditions for the exchange of health data. This agreement is used to ensure that both parties understand the terms and conditions of the exchange and that they are in compliance</t>
+  </si>
+  <si>
+    <t>The Registry Portal is designed to provide a secure and efficient way for healthcare professionals such as physicians and pharmacists to access and manage their personal and professional information. The portal allows healthcare professionals to update their personal information, such as their name, address, and contact information, as well as their professional information, such as their qualifications and licenses. The portal also provides a secure way for healthcare professionals to access and manage their digital certificates, which are used to verify their professional qualifications and credentials. The portal also provides a secure way for healthcare professionals to access and manage their digital certificates, which are used to verify their professional qualifications and credentials..</t>
+  </si>
+  <si>
+    <t>The NeHA Operator is responsible for managing the system's day-to-day operations, with a focus on pharmacists, pharmacies, and certification processes. The NeHA Operator has the following responsibilities: Viewing all pharmacists, physicians, and pharmacies within the system. The ability to edit details of pharmacists and pharmacies to ensure up-to-date and accurate information. Enabling or disabling pharmacists and physicians within the system, ensuring only authorized individuals have access. Viewing active, expired, and revoked certificates, along with the authority to revoke certificates, ensuring compliance and integrity in certification processes</t>
+  </si>
+  <si>
+    <t>The responsibilities associated with the creation of certificates for physicians and pharmacists include: 1. Creating new certificates: Both physicians and pharmacists have the authority to create new certificates, which are used to verify and authenticate professional qualifications and services. 2. Viewing certificates: Both physicians and pharmacists have the capability to view their active, revoked, and expired certificates, providing them with a comprehensive overview of their certification status. 3. Revocation of certificates: Both physicians and pharmacists hold the authority to revoke active certificates, ensuring the system reflects their current professional standing accurately. 4. Role-based access control: The system provides role-based access control, ensuring that only authorized users can create, view, and revoke certificates. 5. Audit trail: The system maintains an audit trail of all certificate creation, viewing, and revocation activities, providing a record of the system's operations. 6. Certificate validation: The system validates the authenticity and validity of certificates, ensuring that only valid and trusted certificates are used</t>
+  </si>
+  <si>
+    <t>The NCP eHealth(Cyprus) Portal is a digital platform that provides a secure and efficient way for healthcare professionals to share and access patient information. The portal is designed to facilitate cross-border eHealth services, allowing healthcare providers to collaborate and coordinate care for patients who may be receiving treatment in multiple countries. The portal is managed by the National eHealth Authority (NeHA) in Cyprus, which is responsible for the development and implementation of the portal. The NeHA is a government agency that is tasked with promoting the use of eHealth technologies in the healthcare sector. The portal is designed to be user-friendly and accessible to healthcare professionals from all over the world. It provides a secure and encrypted environment for healthcare providers to share patient information, including medical records, test results, and other relevant data. The portal is also designed to be compliant with international standards and regulations, ensuring that patient data is protected and secure. This includes measures such as encryption, authentication, and access control, which help to prevent unauthorized access to patient information. The portal is also designed to be scalable, allowing it to</t>
+  </si>
+  <si>
+    <t>Certificates are crucial for verification and authentication within the portal because they provide a secure and reliable way to verify the identity and credentials of healthcare professionals. Certificates are issued by trusted authorities and contain information such as the professional's name, qualifications, and other relevant details. This information is used to verify the professional's identity and credentials, ensuring that they are qualified to provide healthcare services. Certificates also provide a way to authenticate the professional's identity and credentials, ensuring that the information contained in the certificate is accurate and up-to-date. This helps to ensure that healthcare professionals are providing safe and effective care to their patients..</t>
   </si>
 </sst>
 </file>
@@ -1188,8 +1215,8 @@
   <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.2"/>
@@ -2198,7 +2225,9 @@
       <c r="B66" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C66" s="20"/>
+      <c r="C66" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="D66" s="20"/>
       <c r="E66" s="14">
         <v>5</v>
@@ -2241,7 +2270,9 @@
       <c r="B69" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="20"/>
+      <c r="C69" s="24" t="s">
+        <v>153</v>
+      </c>
       <c r="D69" s="20"/>
       <c r="E69" s="14">
         <v>6</v>
@@ -2284,7 +2315,9 @@
       <c r="B72" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C72" s="20"/>
+      <c r="C72" s="21" t="s">
+        <v>210</v>
+      </c>
       <c r="D72" s="20"/>
       <c r="E72" s="14">
         <v>8</v>
@@ -2297,7 +2330,9 @@
       <c r="B73" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C73" s="20"/>
+      <c r="C73" s="22" t="s">
+        <v>211</v>
+      </c>
       <c r="D73" s="20"/>
       <c r="E73" s="14">
         <v>8</v>
@@ -2310,7 +2345,9 @@
       <c r="B74" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C74" s="20"/>
+      <c r="C74" s="21" t="s">
+        <v>212</v>
+      </c>
       <c r="D74" s="20"/>
       <c r="E74" s="14">
         <v>8</v>
@@ -2323,7 +2360,9 @@
       <c r="B75" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="20"/>
+      <c r="C75" s="21" t="s">
+        <v>213</v>
+      </c>
       <c r="D75" s="20"/>
       <c r="E75" s="14">
         <v>8</v>
@@ -2336,7 +2375,9 @@
       <c r="B76" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="20"/>
+      <c r="C76" s="22" t="s">
+        <v>161</v>
+      </c>
       <c r="D76" s="20"/>
       <c r="E76" s="14">
         <v>11</v>
@@ -2349,7 +2390,9 @@
       <c r="B77" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C77" s="20"/>
+      <c r="C77" s="22" t="s">
+        <v>214</v>
+      </c>
       <c r="D77" s="20"/>
       <c r="E77" s="14">
         <v>8</v>
@@ -2377,7 +2420,9 @@
       <c r="B79" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="20"/>
+      <c r="C79" s="21" t="s">
+        <v>215</v>
+      </c>
       <c r="D79" s="20"/>
       <c r="E79" s="14">
         <v>8</v>
@@ -2405,7 +2450,9 @@
       <c r="B81" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="20"/>
+      <c r="C81" s="22" t="s">
+        <v>167</v>
+      </c>
       <c r="D81" s="20"/>
       <c r="E81" s="14">
         <v>9</v>
@@ -2433,7 +2480,9 @@
       <c r="B83" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="20"/>
+      <c r="C83" s="22" t="s">
+        <v>216</v>
+      </c>
       <c r="D83" s="20"/>
       <c r="E83" s="14">
         <v>9</v>
@@ -2461,7 +2510,9 @@
       <c r="B85" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C85" s="20"/>
+      <c r="C85" s="21" t="s">
+        <v>217</v>
+      </c>
       <c r="D85" s="20"/>
       <c r="E85" s="14">
         <v>9</v>
@@ -2474,7 +2525,9 @@
       <c r="B86" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="20"/>
+      <c r="C86" s="22" t="s">
+        <v>218</v>
+      </c>
       <c r="D86" s="20"/>
       <c r="E86" s="20">
         <v>9</v>
